--- a/data/trans_dic/Q17F_D_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1117838760446332</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1155977850476339</v>
+        <v>0.1155977850476338</v>
       </c>
     </row>
     <row r="5">
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03932226424740996</v>
+        <v>0.04107885537134377</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03189647476904702</v>
+        <v>0.03164420075561977</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03291537107356025</v>
+        <v>0.03184073525501412</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.01265004728146084</v>
+        <v>0.0235654865911386</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04066521170839364</v>
+        <v>0.04014777237957964</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0733493568150814</v>
+        <v>0.06496878771806318</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06456433065229883</v>
+        <v>0.06552864531636739</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04015895768450903</v>
+        <v>0.03624773563067777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04771847433979314</v>
+        <v>0.04686091653072996</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06899198448350342</v>
+        <v>0.07219632588741312</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04451952130040113</v>
+        <v>0.04501323408013071</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2186986054809924</v>
+        <v>0.2288573131648155</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1934562919645171</v>
+        <v>0.209334811182942</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2024676903780689</v>
+        <v>0.1837423579060503</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.1152318243228525</v>
+        <v>0.1269787084593535</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1538989598324103</v>
+        <v>0.1564322839071987</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2133150606718328</v>
+        <v>0.2035048440678165</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3260858663854412</v>
+        <v>0.3318734694692184</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1390541043174663</v>
+        <v>0.1312521963893523</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1453171986486964</v>
+        <v>0.1439240427576917</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.162633900555947</v>
+        <v>0.1688057244517616</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2310742916001936</v>
+        <v>0.2212399177506591</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.05874549120681034</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08949864067547729</v>
+        <v>0.08949864067547732</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1245680379856654</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04197227421289932</v>
+        <v>0.03908368372052529</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04025987309474843</v>
+        <v>0.04076861480143037</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02233978986104023</v>
+        <v>0.02112847632059488</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02007625806037382</v>
+        <v>0.02335336620942851</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07407887117908217</v>
+        <v>0.07208733123945289</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06969127703246847</v>
+        <v>0.06361923275919301</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06884241360032139</v>
+        <v>0.06624201226899057</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07917248024611258</v>
+        <v>0.07834315942270667</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07515122999667323</v>
+        <v>0.07383335926030389</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06877651600653233</v>
+        <v>0.07027667880648121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05943133059051497</v>
+        <v>0.06043447984389434</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07476953609411434</v>
+        <v>0.06704536875837629</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2021267826853042</v>
+        <v>0.2081955966838779</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1562757986341506</v>
+        <v>0.1625006079978403</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1230418624122369</v>
+        <v>0.1220480296608251</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2101544494743579</v>
+        <v>0.1973720170651504</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1896418044709964</v>
+        <v>0.1922346390607721</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1740828569591042</v>
+        <v>0.1670871267542809</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1751468868960693</v>
+        <v>0.1696795445383366</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2233041981396875</v>
+        <v>0.22790272999819</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1730441234525495</v>
+        <v>0.1685076443792509</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1407696546349307</v>
+        <v>0.1456659834424138</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.133754041959674</v>
+        <v>0.1298585516705696</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1939878765104625</v>
+        <v>0.1826417925895618</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04398189133485959</v>
+        <v>0.0448074636075728</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06523534302132346</v>
+        <v>0.06960595290435104</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05945767100981571</v>
+        <v>0.06048240323988669</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07388411341635787</v>
+        <v>0.06955371391809417</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1083753050112019</v>
+        <v>0.1100057215784091</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06761029570058577</v>
+        <v>0.0659165917833216</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08749614957125593</v>
+        <v>0.09419700960299307</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1410950439933837</v>
+        <v>0.1409587751878965</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09712565544657104</v>
+        <v>0.09949561011232713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07868653645867488</v>
+        <v>0.07784085144306845</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08697737531898564</v>
+        <v>0.08696055481884153</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1294008654108036</v>
+        <v>0.1267737589710614</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1664999419683246</v>
+        <v>0.1759978684682421</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1796604287761</v>
+        <v>0.1768022692582142</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1802677659340528</v>
+        <v>0.1796324801416491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2380385895591705</v>
+        <v>0.2357037925455857</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2306598684348436</v>
+        <v>0.227758094561915</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1569930144463103</v>
+        <v>0.1612044395541438</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1987228439383365</v>
+        <v>0.2061715630478636</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2613210874092844</v>
+        <v>0.2583502573869608</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1868356309456107</v>
+        <v>0.186205652141035</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1530952853759762</v>
+        <v>0.1509823466262854</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1669904135404139</v>
+        <v>0.1730698222385582</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2244736675228645</v>
+        <v>0.223700900415153</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.08213037217972083</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2370675632528912</v>
+        <v>0.2370675632528913</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07009723198530889</v>
+        <v>0.07764760140651225</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08281116468863871</v>
+        <v>0.09232939614708344</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04544073627109181</v>
+        <v>0.04195346991608467</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1460596834580165</v>
+        <v>0.1412523611004384</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08841090577153843</v>
+        <v>0.09016376811026856</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07081804116844775</v>
+        <v>0.07173364632059256</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04937917458254402</v>
+        <v>0.04906939130984245</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2010290500127646</v>
+        <v>0.2031079027039078</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09978586444642228</v>
+        <v>0.1004304542529283</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09382688326154567</v>
+        <v>0.09146867426511117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0541603950713363</v>
+        <v>0.05438684836478634</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1932003013770729</v>
+        <v>0.1956701276317762</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2480123188637233</v>
+        <v>0.2333463815886966</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2336841170378159</v>
+        <v>0.2344276233333484</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1326170715135344</v>
+        <v>0.134979685249818</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3034016417205241</v>
+        <v>0.2891059929241906</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2069989267155006</v>
+        <v>0.2161086336341596</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1738776277292727</v>
+        <v>0.1687745350900756</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1385864599823091</v>
+        <v>0.1410994538142942</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3116703682404954</v>
+        <v>0.3194176303779843</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1992457107585675</v>
+        <v>0.1946204541334279</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1755267669848673</v>
+        <v>0.1745860858139911</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1151865097117929</v>
+        <v>0.1175561750156137</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2831542710296236</v>
+        <v>0.2810658960124823</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.1507217374176215</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2674517244283715</v>
+        <v>0.2674517244283716</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08151583932625629</v>
+        <v>0.08560918483641709</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0794541984505632</v>
+        <v>0.07322313143400946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08700209304165948</v>
+        <v>0.08726387103459327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1895723757640032</v>
+        <v>0.1869106543815913</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06817943107536885</v>
+        <v>0.07042891165492127</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06143632780102446</v>
+        <v>0.06229553013303891</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1000236983638888</v>
+        <v>0.0993497159920228</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2204140690231575</v>
+        <v>0.2179378137711908</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09147212095984079</v>
+        <v>0.09151255810580124</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08188006821108926</v>
+        <v>0.08183219384147719</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.111148464146295</v>
+        <v>0.1113205877737905</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2192106743600963</v>
+        <v>0.2238403913497097</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2064765331804354</v>
+        <v>0.2075504916679204</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1977936537323763</v>
+        <v>0.2056520834987728</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2276337862447901</v>
+        <v>0.2217769705069709</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3416090456609576</v>
+        <v>0.338903777387424</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1764811927875894</v>
+        <v>0.1830834429760127</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1622500391205462</v>
+        <v>0.1674865494752485</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2212906660601965</v>
+        <v>0.2174658459088843</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3345294261258918</v>
+        <v>0.3393453150049331</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1753954003205097</v>
+        <v>0.174687797046549</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1559491443120017</v>
+        <v>0.1559718366665778</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1989024355265376</v>
+        <v>0.2015871130672328</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3167891822180735</v>
+        <v>0.3176110721958086</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1047704676874313</v>
+        <v>0.1116761480861348</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1249544677434914</v>
+        <v>0.1250322264664731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09090911741156028</v>
+        <v>0.08815725252408634</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1488639343911903</v>
+        <v>0.1540419000296176</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03609110075840855</v>
+        <v>0.03643916499379493</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06434341349659715</v>
+        <v>0.06448784053870094</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08274599168115529</v>
+        <v>0.0827715516237469</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1459058548269416</v>
+        <v>0.142328571190204</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08019456862594233</v>
+        <v>0.08087934089541204</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1116733192295427</v>
+        <v>0.1052162030997233</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09702972137930187</v>
+        <v>0.09791887946733133</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1623582595136363</v>
+        <v>0.1656119405600256</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2466798368693466</v>
+        <v>0.2430205674936546</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2797757091110037</v>
+        <v>0.2815892299765013</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2209633219819222</v>
+        <v>0.219460535936635</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2884382649828577</v>
+        <v>0.285727269032264</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1145929113061062</v>
+        <v>0.1111804988503586</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1630825797025435</v>
+        <v>0.1663465848635625</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1876841058939885</v>
+        <v>0.1827798518698122</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2509256206601009</v>
+        <v>0.2432338338258115</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1536665367301164</v>
+        <v>0.1567553455276985</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1991138479579045</v>
+        <v>0.1948905483783456</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1745944756871658</v>
+        <v>0.175552804334859</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.249046528603325</v>
+        <v>0.2512423146278562</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.1161934791864269</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1833583955782342</v>
+        <v>0.1833583955782343</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.06251166595572896</v>
@@ -1497,7 +1497,7 @@
         <v>0.12776449286669</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1546728073868602</v>
+        <v>0.1546728073868601</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.06407599076048656</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03039829604732857</v>
+        <v>0.03019454166804562</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04805576657223246</v>
+        <v>0.04612680378358171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06346338361718204</v>
+        <v>0.06306686198357445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1206041011745696</v>
+        <v>0.1175720913190189</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0288610969747341</v>
+        <v>0.02916209946699322</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05483697348738213</v>
+        <v>0.06054231719967235</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07814200839702473</v>
+        <v>0.07587184165108075</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1127228402425147</v>
+        <v>0.1124549634063428</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03510201151288042</v>
+        <v>0.03549992912615507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06087259879206687</v>
+        <v>0.06316981357896562</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08611173592683642</v>
+        <v>0.08478006662290712</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1292658426538094</v>
+        <v>0.1276321658220028</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1361555106569233</v>
+        <v>0.1347559737881815</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1699586231008381</v>
+        <v>0.1671164282133009</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1868436266760691</v>
+        <v>0.1852009544265678</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.267577383842698</v>
+        <v>0.2644764213605869</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1133560325105744</v>
+        <v>0.1222853726074006</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1414141397514973</v>
+        <v>0.1512735268303468</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2048882624294606</v>
+        <v>0.1978684910926738</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2201323291046103</v>
+        <v>0.2152846997927956</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1025668615731945</v>
+        <v>0.1013335043282071</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1335532250882044</v>
+        <v>0.1326836171892692</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1703356079323708</v>
+        <v>0.1723951232351677</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2120857344873771</v>
+        <v>0.2137636883906344</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>0.1181716166053353</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.196195660747419</v>
+        <v>0.1961956607474191</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0970968480281747</v>
+        <v>0.09735793305327092</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1021535877763712</v>
+        <v>0.1016357524042215</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08802858296415721</v>
+        <v>0.08692838972958122</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.15463216596573</v>
+        <v>0.1552562462081707</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.08810146126791168</v>
+        <v>0.08853856725266156</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08831630934255731</v>
+        <v>0.08691218235844062</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1061683703414005</v>
+        <v>0.1065449827404733</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1806487709366804</v>
+        <v>0.1807081184303071</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09880123107209467</v>
+        <v>0.09691758713030704</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.09886174121823742</v>
+        <v>0.09859885352307564</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1031775363106725</v>
+        <v>0.1046047621046136</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1786731595291536</v>
+        <v>0.1781563593796125</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1537540179710359</v>
+        <v>0.1501659455179252</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1548517019268081</v>
+        <v>0.1532070170970906</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1327450841154197</v>
+        <v>0.1336132769522018</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2178308564900694</v>
+        <v>0.2191661984023104</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1286334637154148</v>
+        <v>0.1280283891211674</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1262444234353654</v>
+        <v>0.1246433164143768</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1464981455830135</v>
+        <v>0.1472796919456691</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2295259425350427</v>
+        <v>0.2302431489835393</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1302028340538328</v>
+        <v>0.1302182977877255</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1291724614268586</v>
+        <v>0.1296386238524817</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1343456727349309</v>
+        <v>0.1354318712570747</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2155452650102627</v>
+        <v>0.2156033290308597</v>
       </c>
     </row>
     <row r="28">
@@ -2007,38 +2007,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2000</v>
+        <v>2090</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1851</v>
+        <v>1836</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2110</v>
+        <v>2041</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>930</v>
+        <v>1732</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3877</v>
+        <v>3828</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6708</v>
+        <v>5941</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4123</v>
+        <v>4185</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4994</v>
+        <v>4508</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7319</v>
+        <v>7187</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10731</v>
+        <v>11230</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4018</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="7">
@@ -2049,38 +2049,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11126</v>
+        <v>11643</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11226</v>
+        <v>12148</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12977</v>
+        <v>11777</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>8467</v>
+        <v>9331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14673</v>
+        <v>14915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19507</v>
+        <v>18610</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20824</v>
+        <v>21193</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>17292</v>
+        <v>16322</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22288</v>
+        <v>22074</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25296</v>
+        <v>26256</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20854</v>
+        <v>19966</v>
       </c>
     </row>
     <row r="8">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2875</v>
+        <v>2677</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3843</v>
+        <v>3892</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1928</v>
+        <v>1823</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1641</v>
+        <v>1909</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10646</v>
+        <v>10360</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11147</v>
+        <v>10176</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10272</v>
+        <v>9884</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8321</v>
+        <v>8233</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15947</v>
+        <v>15667</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>17566</v>
+        <v>17949</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13996</v>
+        <v>14232</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13970</v>
+        <v>12527</v>
       </c>
     </row>
     <row r="11">
@@ -2227,40 +2227,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13843</v>
+        <v>14259</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14918</v>
+        <v>15512</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10617</v>
+        <v>10531</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17181</v>
+        <v>16136</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27254</v>
+        <v>27626</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>27844</v>
+        <v>26725</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26135</v>
+        <v>25319</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23468</v>
+        <v>23951</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36720</v>
+        <v>35757</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>35953</v>
+        <v>37204</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31499</v>
+        <v>30582</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36246</v>
+        <v>34126</v>
       </c>
     </row>
     <row r="12">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3639</v>
+        <v>3707</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8001</v>
+        <v>8537</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8398</v>
+        <v>8543</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6440</v>
+        <v>6062</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18081</v>
+        <v>18353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12702</v>
+        <v>12384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14391</v>
+        <v>15493</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>17922</v>
+        <v>17905</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>24240</v>
+        <v>24831</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>24433</v>
+        <v>24171</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>26591</v>
+        <v>26586</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>27715</v>
+        <v>27153</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13775</v>
+        <v>14561</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22035</v>
+        <v>21684</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25461</v>
+        <v>25372</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20747</v>
+        <v>20544</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38483</v>
+        <v>37999</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29494</v>
+        <v>30285</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>32686</v>
+        <v>33911</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33193</v>
+        <v>32816</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>46629</v>
+        <v>46472</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>47539</v>
+        <v>46882</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>51052</v>
+        <v>52911</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>48078</v>
+        <v>47912</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5443</v>
+        <v>6029</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8902</v>
+        <v>9925</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7310</v>
+        <v>6749</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19176</v>
+        <v>18545</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11931</v>
+        <v>12167</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13337</v>
+        <v>13509</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8489</v>
+        <v>8436</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>34582</v>
+        <v>34939</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21214</v>
+        <v>21351</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>27756</v>
+        <v>27058</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>18023</v>
+        <v>18099</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>58599</v>
+        <v>59349</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19258</v>
+        <v>18119</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25120</v>
+        <v>25200</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21334</v>
+        <v>21714</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39833</v>
+        <v>37956</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27934</v>
+        <v>29163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>32746</v>
+        <v>31785</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>23825</v>
+        <v>24257</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>53614</v>
+        <v>54947</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>42359</v>
+        <v>41375</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>51925</v>
+        <v>51646</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>38332</v>
+        <v>39120</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>85883</v>
+        <v>85250</v>
       </c>
     </row>
     <row r="20">
@@ -2723,40 +2723,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9506</v>
+        <v>9983</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10104</v>
+        <v>9312</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12077</v>
+        <v>12113</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25044</v>
+        <v>24692</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9709</v>
+        <v>10030</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9237</v>
+        <v>9366</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>18603</v>
+        <v>18477</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32174</v>
+        <v>31812</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>23693</v>
+        <v>23703</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>22723</v>
+        <v>22710</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>36101</v>
+        <v>36157</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>60957</v>
+        <v>62245</v>
       </c>
     </row>
     <row r="23">
@@ -2767,40 +2767,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24077</v>
+        <v>24202</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25153</v>
+        <v>26153</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31599</v>
+        <v>30786</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>45129</v>
+        <v>44771</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25133</v>
+        <v>26073</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24394</v>
+        <v>25181</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>41157</v>
+        <v>40445</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>48831</v>
+        <v>49534</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>45431</v>
+        <v>45247</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>43278</v>
+        <v>43285</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>64603</v>
+        <v>65475</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>88091</v>
+        <v>88320</v>
       </c>
     </row>
     <row r="24">
@@ -2903,40 +2903,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>13274</v>
+        <v>14149</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>15882</v>
+        <v>15891</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10972</v>
+        <v>10640</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16538</v>
+        <v>17113</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5415</v>
+        <v>5467</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9379</v>
+        <v>9400</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>14686</v>
+        <v>14690</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>18170</v>
+        <v>17724</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>22193</v>
+        <v>22383</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>30471</v>
+        <v>28710</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>28931</v>
+        <v>29197</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>38256</v>
+        <v>39022</v>
       </c>
     </row>
     <row r="27">
@@ -2947,40 +2947,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>31254</v>
+        <v>30790</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>35559</v>
+        <v>35790</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>26669</v>
+        <v>26488</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>32044</v>
+        <v>31743</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17194</v>
+        <v>16682</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>23771</v>
+        <v>24247</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>33310</v>
+        <v>32439</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>31248</v>
+        <v>30290</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>42526</v>
+        <v>43381</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>54331</v>
+        <v>53178</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>52059</v>
+        <v>52345</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>58682</v>
+        <v>59199</v>
       </c>
     </row>
     <row r="28">
@@ -3083,40 +3083,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2494</v>
+        <v>2477</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5194</v>
+        <v>4985</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6617</v>
+        <v>6576</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>9879</v>
+        <v>9631</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4527</v>
+        <v>4574</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9898</v>
+        <v>10928</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>13020</v>
+        <v>12642</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>15223</v>
+        <v>15187</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>8385</v>
+        <v>8480</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>17567</v>
+        <v>18230</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>23326</v>
+        <v>22965</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>28046</v>
+        <v>27692</v>
       </c>
     </row>
     <row r="31">
@@ -3127,40 +3127,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11169</v>
+        <v>11054</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18368</v>
+        <v>18061</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19481</v>
+        <v>19310</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>21919</v>
+        <v>21665</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>17780</v>
+        <v>19181</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>25526</v>
+        <v>27306</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>34138</v>
+        <v>32969</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>29729</v>
+        <v>29074</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>24501</v>
+        <v>24207</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>38541</v>
+        <v>38290</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>46141</v>
+        <v>46699</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>46015</v>
+        <v>46379</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>58752</v>
+        <v>58910</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>76204</v>
+        <v>75818</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>71854</v>
+        <v>70956</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>100774</v>
+        <v>101181</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>85307</v>
+        <v>85730</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>97864</v>
+        <v>96308</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>117543</v>
+        <v>117960</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>157805</v>
+        <v>157857</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>155451</v>
+        <v>152487</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>183297</v>
+        <v>182810</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>198451</v>
+        <v>201196</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>272521</v>
+        <v>271733</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>93034</v>
+        <v>90863</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>115515</v>
+        <v>114289</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>108354</v>
+        <v>109063</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>141961</v>
+        <v>142831</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>124554</v>
+        <v>123968</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>139892</v>
+        <v>138118</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>162193</v>
+        <v>163059</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>200502</v>
+        <v>201128</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>204857</v>
+        <v>204881</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>239496</v>
+        <v>240360</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>258400</v>
+        <v>260489</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>328761</v>
+        <v>328849</v>
       </c>
     </row>
     <row r="36">
